--- a/data/manual/2016_matches.xlsx
+++ b/data/manual/2016_matches.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Desktop\Euro-2024-Prediction\data\manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF9BEAB-069A-4462-A650-86C4AACBF479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19834813-E373-48C3-9FA4-7E139A0D6D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{27DF62E8-910F-4EF6-9B99-89321392CC8D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="66">
   <si>
     <t>Turkey </t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>team2</t>
-  </si>
-  <si>
-    <t>group</t>
   </si>
   <si>
     <t>0–1</t>
@@ -289,11 +286,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -630,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183ABF59-3DBD-44B9-875B-F4827549A1B9}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,29 +649,28 @@
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="D1" s="4"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D2" s="5"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -681,7 +679,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -693,25 +691,25 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>58</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -720,10 +718,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -732,43 +730,43 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -777,7 +775,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -789,85 +787,85 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -876,40 +874,40 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
@@ -921,7 +919,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -933,31 +931,31 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -975,19 +973,19 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -996,94 +994,94 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
         <v>45</v>
-      </c>
-      <c r="B37" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" t="s">
-        <v>46</v>
       </c>
       <c r="E37" s="2"/>
     </row>
@@ -1095,7 +1093,7 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1106,51 +1104,51 @@
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1158,32 +1156,32 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s">
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1194,12 +1192,12 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
         <v>4</v>
@@ -1210,21 +1208,21 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -1232,24 +1230,24 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
